--- a/BSIT_Students.xlsx
+++ b/BSIT_Students.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GCSMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F341AC27-1434-4DF0-A07A-BEB810F72790}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>stud_no</t>
   </si>
@@ -45,113 +51,158 @@
     <t>Regular</t>
   </si>
   <si>
-    <t>FFT</t>
-  </si>
-  <si>
-    <t>CSSS</t>
-  </si>
-  <si>
-    <t>POPOP</t>
-  </si>
-  <si>
-    <t>jennifer</t>
-  </si>
-  <si>
-    <t>sanchez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan </t>
-  </si>
-  <si>
-    <t>Cortesiano</t>
-  </si>
-  <si>
     <t>BSIT</t>
   </si>
   <si>
-    <t>Francheska</t>
-  </si>
-  <si>
-    <t>Ronquillo</t>
-  </si>
-  <si>
-    <t>2017-00056</t>
-  </si>
-  <si>
-    <t>2017-00057</t>
-  </si>
-  <si>
-    <t>2017-00058</t>
-  </si>
-  <si>
-    <t>2017-00059</t>
-  </si>
-  <si>
-    <t>2017-00060</t>
-  </si>
-  <si>
-    <t>2017-00061</t>
-  </si>
-  <si>
-    <t>2017-00062</t>
-  </si>
-  <si>
-    <t>2017-00063</t>
-  </si>
-  <si>
-    <t>2017-00064</t>
-  </si>
-  <si>
-    <t>2017-00065</t>
-  </si>
-  <si>
-    <t>2017-00066</t>
-  </si>
-  <si>
-    <t>Lkier</t>
-  </si>
-  <si>
-    <t>Gfoor</t>
-  </si>
-  <si>
-    <t>BFeg</t>
-  </si>
-  <si>
-    <t>Rhea</t>
-  </si>
-  <si>
-    <t>Rios</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Delos</t>
-  </si>
-  <si>
-    <t>Nikki</t>
-  </si>
-  <si>
-    <t>Castilo</t>
-  </si>
-  <si>
-    <t>Mami</t>
-  </si>
-  <si>
     <t>Alejandria</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>City Address</t>
+  </si>
+  <si>
+    <t>Provincial Address</t>
+  </si>
+  <si>
+    <t>Telephone No.</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Birth Place</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>2015-00075-CM-0</t>
+  </si>
+  <si>
+    <t>2015-00410-CM-0</t>
+  </si>
+  <si>
+    <t>2015-00046-CM-0</t>
+  </si>
+  <si>
+    <t>2015-00007-CM-0</t>
+  </si>
+  <si>
+    <t>Lowell Dave</t>
+  </si>
+  <si>
+    <t>Elba</t>
+  </si>
+  <si>
+    <t>Agnir</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>1999-04-21</t>
+  </si>
+  <si>
+    <t>Blk. 17 Lot 11 Lamar Village GB II San Mateo Rizal</t>
+  </si>
+  <si>
+    <t>Not Specified</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>lowell.agnir@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ma. Michaela</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>1998-06-17</t>
+  </si>
+  <si>
+    <t>1 St. Joseph St., Lamesa Heights Subd., Brgy. Greater Lagro, Quezon City</t>
+  </si>
+  <si>
+    <t>mikaalej@gmail.com</t>
+  </si>
+  <si>
+    <t>Keith Eyvan</t>
+  </si>
+  <si>
+    <t>Nobong</t>
+  </si>
+  <si>
+    <t>Alvior</t>
+  </si>
+  <si>
+    <t>1999-03-26</t>
+  </si>
+  <si>
+    <t>Blk. 4 Lot3 Doña Nicassa Puyat Subd. Commonwealth Quezon City</t>
+  </si>
+  <si>
+    <t>thenewarkhamjoker@outlook.com</t>
+  </si>
+  <si>
+    <t>Alyana Mae</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Apo</t>
+  </si>
+  <si>
+    <t>1999-09-22</t>
+  </si>
+  <si>
+    <t>418 TandangSora Avenue, Quezon City</t>
+  </si>
+  <si>
+    <t>yana-apo@yahoo.com</t>
+  </si>
+  <si>
+    <t>2012-00156-CM-0</t>
+  </si>
+  <si>
+    <t>Mary Joy</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Asusula</t>
+  </si>
+  <si>
+    <t>1994-04-18</t>
+  </si>
+  <si>
+    <t>blk 11 lot 11 kalap subdivision , Novaliches, Quezon City</t>
+  </si>
+  <si>
+    <t>mcz_joy@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +231,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,307 +515,347 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="68.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="44.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>9293767107</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>9089598580</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>9108580918</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>9392362781</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="M6">
+        <v>9129876707</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Something went wrong_x000a_" promptTitle="Student Number" prompt="You must follow the 15 character rule of the identity number " sqref="A6" xr:uid="{A17DA981-4FDC-402A-B63D-4A052B9BD962}">
+      <formula1>15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{F6F390F1-DD5A-4D8C-81C2-66FEFC86CCF9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>